--- a/spliced/falling/2023-03-21_15-35-39/accelerometer_selected.xlsx
+++ b/spliced/falling/2023-03-21_15-35-39/accelerometer_selected.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,233 +452,222 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1.555334329605102</v>
+        <v>2.566667938232422</v>
       </c>
       <c r="B2" t="n">
-        <v>-2.938729083538055</v>
+        <v>-3.378203916549682</v>
       </c>
       <c r="C2" t="n">
-        <v>3.47747951745987</v>
+        <v>3.007539582252503</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.6493126988410929</v>
+        <v>3.106618106365205</v>
       </c>
       <c r="B3" t="n">
-        <v>-2.875420850515366</v>
+        <v>-3.249815458059311</v>
       </c>
       <c r="C3" t="n">
-        <v>3.464587104320525</v>
+        <v>3.031012719869614</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-0.6712930202484151</v>
+        <v>2.987140679359436</v>
       </c>
       <c r="B4" t="n">
-        <v>-3.392556905746461</v>
+        <v>-3.142817544937134</v>
       </c>
       <c r="C4" t="n">
-        <v>2.365111112594603</v>
+        <v>3.183629143238068</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.5537151455879301</v>
+        <v>2.434188187122345</v>
       </c>
       <c r="B5" t="n">
-        <v>-4.361428594589236</v>
+        <v>-3.181812554597855</v>
       </c>
       <c r="C5" t="n">
-        <v>3.347476267814645</v>
+        <v>3.162444919347763</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2.452674245834349</v>
+        <v>2.282221984863281</v>
       </c>
       <c r="B6" t="n">
-        <v>-4.409869003295896</v>
+        <v>-3.265003252029419</v>
       </c>
       <c r="C6" t="n">
-        <v>5.084140586853025</v>
+        <v>3.094355344772339</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>5.681596696376824</v>
+        <v>2.110153055191039</v>
       </c>
       <c r="B7" t="n">
-        <v>-3.525700151920317</v>
+        <v>-3.195758980512619</v>
       </c>
       <c r="C7" t="n">
-        <v>2.85166837722062</v>
+        <v>3.138975620269776</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1.737989616393984</v>
+        <v>1.555334329605102</v>
       </c>
       <c r="B8" t="n">
-        <v>-2.796510410308835</v>
+        <v>-2.938729083538055</v>
       </c>
       <c r="C8" t="n">
-        <v>1.393881118297584</v>
+        <v>3.47747951745987</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-5.58917605876923</v>
+        <v>0.6493126988410929</v>
       </c>
       <c r="B9" t="n">
-        <v>-7.849099040031435</v>
+        <v>-2.875420850515366</v>
       </c>
       <c r="C9" t="n">
-        <v>6.400659620761871</v>
+        <v>3.464587104320525</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2.166972637176496</v>
+        <v>-0.6712930202484151</v>
       </c>
       <c r="B10" t="n">
-        <v>-11.98566874265667</v>
+        <v>-3.392556905746461</v>
       </c>
       <c r="C10" t="n">
-        <v>9.183138275146462</v>
+        <v>2.365111112594603</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-0.1177038192748863</v>
+        <v>0.5537151455879301</v>
       </c>
       <c r="B11" t="n">
-        <v>-2.770210593938835</v>
+        <v>-4.361428594589236</v>
       </c>
       <c r="C11" t="n">
-        <v>3.860614097118379</v>
+        <v>3.347476267814645</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>3.127950906753536</v>
+        <v>2.452674245834349</v>
       </c>
       <c r="B12" t="n">
-        <v>-4.12096252441406</v>
+        <v>-4.409869003295896</v>
       </c>
       <c r="C12" t="n">
-        <v>3.36216964721679</v>
+        <v>5.084140586853025</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>2.318384975194932</v>
+        <v>5.681596696376824</v>
       </c>
       <c r="B13" t="n">
-        <v>-3.449181020259855</v>
+        <v>-3.525700151920317</v>
       </c>
       <c r="C13" t="n">
-        <v>1.645497059822083</v>
+        <v>2.85166837722062</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>3.076034724712372</v>
+        <v>1.737989616393984</v>
       </c>
       <c r="B14" t="n">
-        <v>-2.935223340988159</v>
+        <v>-2.796510410308835</v>
       </c>
       <c r="C14" t="n">
-        <v>1.488467574119568</v>
+        <v>1.393881118297584</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>4.307219874858854</v>
+        <v>-5.58917605876923</v>
       </c>
       <c r="B15" t="n">
-        <v>-2.422872281074523</v>
+        <v>-7.849099040031435</v>
       </c>
       <c r="C15" t="n">
-        <v>1.113696080446245</v>
+        <v>6.400659620761871</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>3.889325714111331</v>
+        <v>2.166972637176496</v>
       </c>
       <c r="B16" t="n">
-        <v>-2.331348705291748</v>
+        <v>-11.98566874265667</v>
       </c>
       <c r="C16" t="n">
-        <v>1.212168788909908</v>
+        <v>9.183138275146462</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>4.565532350540161</v>
+        <v>-0.1177038192748863</v>
       </c>
       <c r="B17" t="n">
-        <v>-2.527925431728365</v>
+        <v>-2.770210593938835</v>
       </c>
       <c r="C17" t="n">
-        <v>0.07184810638427547</v>
+        <v>3.860614097118379</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>4.525413262844082</v>
+        <v>3.127950906753536</v>
       </c>
       <c r="B18" t="n">
-        <v>-2.978561615943909</v>
+        <v>-4.12096252441406</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.2339930295944185</v>
+        <v>3.36216964721679</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>3.761336714029313</v>
+        <v>2.318384975194932</v>
       </c>
       <c r="B19" t="n">
-        <v>-3.091410279273987</v>
+        <v>-3.449181020259855</v>
       </c>
       <c r="C19" t="n">
-        <v>0.3938730955123901</v>
+        <v>1.645497059822083</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>4.025719761848449</v>
+        <v>3.076034724712372</v>
       </c>
       <c r="B20" t="n">
-        <v>-2.884652662277222</v>
+        <v>-2.935223340988159</v>
       </c>
       <c r="C20" t="n">
-        <v>0.07831997871398896</v>
+        <v>1.488467574119568</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>3.922824805974961</v>
+        <v>4.307219874858854</v>
       </c>
       <c r="B21" t="n">
-        <v>-2.91312141418457</v>
+        <v>-2.422872281074523</v>
       </c>
       <c r="C21" t="n">
-        <v>0.03645527362823536</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>4.07339057922363</v>
-      </c>
-      <c r="B22" t="n">
-        <v>-2.916565942764282</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.1658158779144287</v>
+        <v>1.113696080446245</v>
       </c>
     </row>
   </sheetData>

--- a/spliced/falling/2023-03-21_15-35-39/accelerometer_selected.xlsx
+++ b/spliced/falling/2023-03-21_15-35-39/accelerometer_selected.xlsx
@@ -452,222 +452,222 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2.566667938232422</v>
+        <v>-0.6712930202484151</v>
       </c>
       <c r="B2" t="n">
-        <v>-3.378203916549682</v>
+        <v>-3.392556905746461</v>
       </c>
       <c r="C2" t="n">
-        <v>3.007539582252503</v>
+        <v>2.365111112594603</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>3.106618106365205</v>
+        <v>0.5537151455879301</v>
       </c>
       <c r="B3" t="n">
-        <v>-3.249815458059311</v>
+        <v>-4.361428594589236</v>
       </c>
       <c r="C3" t="n">
-        <v>3.031012719869614</v>
+        <v>3.347476267814645</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2.987140679359436</v>
+        <v>2.452674245834349</v>
       </c>
       <c r="B4" t="n">
-        <v>-3.142817544937134</v>
+        <v>-4.409869003295896</v>
       </c>
       <c r="C4" t="n">
-        <v>3.183629143238068</v>
+        <v>5.084140586853025</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2.434188187122345</v>
+        <v>5.681596696376824</v>
       </c>
       <c r="B5" t="n">
-        <v>-3.181812554597855</v>
+        <v>-3.525700151920317</v>
       </c>
       <c r="C5" t="n">
-        <v>3.162444919347763</v>
+        <v>2.85166837722062</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2.282221984863281</v>
+        <v>1.737989616393984</v>
       </c>
       <c r="B6" t="n">
-        <v>-3.265003252029419</v>
+        <v>-2.796510410308835</v>
       </c>
       <c r="C6" t="n">
-        <v>3.094355344772339</v>
+        <v>1.393881118297584</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2.110153055191039</v>
+        <v>-5.58917605876923</v>
       </c>
       <c r="B7" t="n">
-        <v>-3.195758980512619</v>
+        <v>-7.849099040031435</v>
       </c>
       <c r="C7" t="n">
-        <v>3.138975620269776</v>
+        <v>6.400659620761871</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1.555334329605102</v>
+        <v>2.166972637176496</v>
       </c>
       <c r="B8" t="n">
-        <v>-2.938729083538055</v>
+        <v>-11.98566874265667</v>
       </c>
       <c r="C8" t="n">
-        <v>3.47747951745987</v>
+        <v>9.183138275146462</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.6493126988410929</v>
+        <v>-0.1177038192748863</v>
       </c>
       <c r="B9" t="n">
-        <v>-2.875420850515366</v>
+        <v>-2.770210593938835</v>
       </c>
       <c r="C9" t="n">
-        <v>3.464587104320525</v>
+        <v>3.860614097118379</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-0.6712930202484151</v>
+        <v>3.127950906753536</v>
       </c>
       <c r="B10" t="n">
-        <v>-3.392556905746461</v>
+        <v>-4.12096252441406</v>
       </c>
       <c r="C10" t="n">
-        <v>2.365111112594603</v>
+        <v>3.36216964721679</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.5537151455879301</v>
+        <v>2.318384975194932</v>
       </c>
       <c r="B11" t="n">
-        <v>-4.361428594589236</v>
+        <v>-3.449181020259855</v>
       </c>
       <c r="C11" t="n">
-        <v>3.347476267814645</v>
+        <v>1.645497059822083</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>2.452674245834349</v>
+        <v>3.076034724712372</v>
       </c>
       <c r="B12" t="n">
-        <v>-4.409869003295896</v>
+        <v>-2.935223340988159</v>
       </c>
       <c r="C12" t="n">
-        <v>5.084140586853025</v>
+        <v>1.488467574119568</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>5.681596696376824</v>
+        <v>4.307219874858854</v>
       </c>
       <c r="B13" t="n">
-        <v>-3.525700151920317</v>
+        <v>-2.422872281074523</v>
       </c>
       <c r="C13" t="n">
-        <v>2.85166837722062</v>
+        <v>1.113696080446245</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>1.737989616393984</v>
+        <v>3.889325714111331</v>
       </c>
       <c r="B14" t="n">
-        <v>-2.796510410308835</v>
+        <v>-2.331348705291748</v>
       </c>
       <c r="C14" t="n">
-        <v>1.393881118297584</v>
+        <v>1.212168788909908</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>-5.58917605876923</v>
+        <v>4.565532350540161</v>
       </c>
       <c r="B15" t="n">
-        <v>-7.849099040031435</v>
+        <v>-2.527925431728365</v>
       </c>
       <c r="C15" t="n">
-        <v>6.400659620761871</v>
+        <v>0.07184810638427547</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>2.166972637176496</v>
+        <v>4.525413262844082</v>
       </c>
       <c r="B16" t="n">
-        <v>-11.98566874265667</v>
+        <v>-2.978561615943909</v>
       </c>
       <c r="C16" t="n">
-        <v>9.183138275146462</v>
+        <v>-0.2339930295944185</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>-0.1177038192748863</v>
+        <v>3.761336714029313</v>
       </c>
       <c r="B17" t="n">
-        <v>-2.770210593938835</v>
+        <v>-3.091410279273987</v>
       </c>
       <c r="C17" t="n">
-        <v>3.860614097118379</v>
+        <v>0.3938730955123901</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>3.127950906753536</v>
+        <v>4.025719761848449</v>
       </c>
       <c r="B18" t="n">
-        <v>-4.12096252441406</v>
+        <v>-2.884652662277222</v>
       </c>
       <c r="C18" t="n">
-        <v>3.36216964721679</v>
+        <v>0.07831997871398896</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>2.318384975194932</v>
+        <v>3.922824805974961</v>
       </c>
       <c r="B19" t="n">
-        <v>-3.449181020259855</v>
+        <v>-2.91312141418457</v>
       </c>
       <c r="C19" t="n">
-        <v>1.645497059822083</v>
+        <v>0.03645527362823536</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>3.076034724712372</v>
+        <v>4.07339057922363</v>
       </c>
       <c r="B20" t="n">
-        <v>-2.935223340988159</v>
+        <v>-2.916565942764282</v>
       </c>
       <c r="C20" t="n">
-        <v>1.488467574119568</v>
+        <v>0.1658158779144287</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>4.307219874858854</v>
+        <v>3.406079268455506</v>
       </c>
       <c r="B21" t="n">
-        <v>-2.422872281074523</v>
+        <v>-2.918866038322449</v>
       </c>
       <c r="C21" t="n">
-        <v>1.113696080446245</v>
+        <v>0.1608816981315587</v>
       </c>
     </row>
   </sheetData>

--- a/spliced/falling/2023-03-21_15-35-39/accelerometer_selected.xlsx
+++ b/spliced/falling/2023-03-21_15-35-39/accelerometer_selected.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,222 +452,332 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-0.6712930202484151</v>
+        <v>5.212075734138489</v>
       </c>
       <c r="B2" t="n">
-        <v>-3.392556905746461</v>
+        <v>-2.939898788928986</v>
       </c>
       <c r="C2" t="n">
-        <v>2.365111112594603</v>
+        <v>1.854160755872726</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.5537151455879301</v>
+        <v>3.245875406265258</v>
       </c>
       <c r="B3" t="n">
-        <v>-4.361428594589236</v>
+        <v>-4.094250345230103</v>
       </c>
       <c r="C3" t="n">
-        <v>3.347476267814645</v>
+        <v>2.58136396408081</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2.452674245834349</v>
+        <v>3.096780717372894</v>
       </c>
       <c r="B4" t="n">
-        <v>-4.409869003295896</v>
+        <v>-3.371150910854339</v>
       </c>
       <c r="C4" t="n">
-        <v>5.084140586853025</v>
+        <v>2.613386332988739</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>5.681596696376824</v>
+        <v>2.924881196022033</v>
       </c>
       <c r="B5" t="n">
-        <v>-3.525700151920317</v>
+        <v>-2.50173692703247</v>
       </c>
       <c r="C5" t="n">
-        <v>2.85166837722062</v>
+        <v>2.383840799331665</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1.737989616393984</v>
+        <v>3.458236134052277</v>
       </c>
       <c r="B6" t="n">
-        <v>-2.796510410308835</v>
+        <v>-2.494953083992004</v>
       </c>
       <c r="C6" t="n">
-        <v>1.393881118297584</v>
+        <v>2.681476718187333</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-5.58917605876923</v>
+        <v>2.869051647186279</v>
       </c>
       <c r="B7" t="n">
-        <v>-7.849099040031435</v>
+        <v>-3.347217082977296</v>
       </c>
       <c r="C7" t="n">
-        <v>6.400659620761871</v>
+        <v>2.930787801742554</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2.166972637176496</v>
+        <v>2.807376968860626</v>
       </c>
       <c r="B8" t="n">
-        <v>-11.98566874265667</v>
+        <v>-3.875039219856262</v>
       </c>
       <c r="C8" t="n">
-        <v>9.183138275146462</v>
+        <v>3.420289939641953</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-0.1177038192748863</v>
+        <v>2.295876741409302</v>
       </c>
       <c r="B9" t="n">
-        <v>-2.770210593938835</v>
+        <v>-4.034408569335938</v>
       </c>
       <c r="C9" t="n">
-        <v>3.860614097118379</v>
+        <v>3.253981232643127</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>3.127950906753536</v>
+        <v>2.279258108139039</v>
       </c>
       <c r="B10" t="n">
-        <v>-4.12096252441406</v>
+        <v>-3.775099605321884</v>
       </c>
       <c r="C10" t="n">
-        <v>3.36216964721679</v>
+        <v>3.11082683801651</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2.318384975194932</v>
+        <v>2.566667938232422</v>
       </c>
       <c r="B11" t="n">
-        <v>-3.449181020259855</v>
+        <v>-3.378203916549682</v>
       </c>
       <c r="C11" t="n">
-        <v>1.645497059822083</v>
+        <v>3.007539582252503</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>3.076034724712372</v>
+        <v>3.106618106365205</v>
       </c>
       <c r="B12" t="n">
-        <v>-2.935223340988159</v>
+        <v>-3.249815458059311</v>
       </c>
       <c r="C12" t="n">
-        <v>1.488467574119568</v>
+        <v>3.031012719869614</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>4.307219874858854</v>
+        <v>2.987140679359436</v>
       </c>
       <c r="B13" t="n">
-        <v>-2.422872281074523</v>
+        <v>-3.142817544937134</v>
       </c>
       <c r="C13" t="n">
-        <v>1.113696080446245</v>
+        <v>3.183629143238068</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>3.889325714111331</v>
+        <v>2.434188187122345</v>
       </c>
       <c r="B14" t="n">
-        <v>-2.331348705291748</v>
+        <v>-3.181812554597855</v>
       </c>
       <c r="C14" t="n">
-        <v>1.212168788909908</v>
+        <v>3.162444919347763</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>4.565532350540161</v>
+        <v>2.282221984863281</v>
       </c>
       <c r="B15" t="n">
-        <v>-2.527925431728365</v>
+        <v>-3.265003252029419</v>
       </c>
       <c r="C15" t="n">
-        <v>0.07184810638427547</v>
+        <v>3.094355344772339</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>4.525413262844082</v>
+        <v>2.110153055191039</v>
       </c>
       <c r="B16" t="n">
-        <v>-2.978561615943909</v>
+        <v>-3.195758980512619</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.2339930295944185</v>
+        <v>3.138975620269776</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>3.761336714029313</v>
+        <v>1.555334329605102</v>
       </c>
       <c r="B17" t="n">
-        <v>-3.091410279273987</v>
+        <v>-2.938729083538055</v>
       </c>
       <c r="C17" t="n">
-        <v>0.3938730955123901</v>
+        <v>3.47747951745987</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>4.025719761848449</v>
+        <v>0.6493126988410929</v>
       </c>
       <c r="B18" t="n">
-        <v>-2.884652662277222</v>
+        <v>-2.875420850515366</v>
       </c>
       <c r="C18" t="n">
-        <v>0.07831997871398896</v>
+        <v>3.464587104320525</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>3.922824805974961</v>
+        <v>-0.6712930202484151</v>
       </c>
       <c r="B19" t="n">
-        <v>-2.91312141418457</v>
+        <v>-3.392556905746461</v>
       </c>
       <c r="C19" t="n">
-        <v>0.03645527362823536</v>
+        <v>2.365111112594603</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>4.07339057922363</v>
+        <v>0.5537151455879301</v>
       </c>
       <c r="B20" t="n">
-        <v>-2.916565942764282</v>
+        <v>-4.361428594589236</v>
       </c>
       <c r="C20" t="n">
-        <v>0.1658158779144287</v>
+        <v>3.347476267814645</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>3.406079268455506</v>
+        <v>2.452674245834349</v>
       </c>
       <c r="B21" t="n">
-        <v>-2.918866038322449</v>
+        <v>-4.409869003295896</v>
       </c>
       <c r="C21" t="n">
-        <v>0.1608816981315587</v>
+        <v>5.084140586853025</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>5.681596696376824</v>
+      </c>
+      <c r="B22" t="n">
+        <v>-3.525700151920317</v>
+      </c>
+      <c r="C22" t="n">
+        <v>2.85166837722062</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>1.737989616393984</v>
+      </c>
+      <c r="B23" t="n">
+        <v>-2.796510410308835</v>
+      </c>
+      <c r="C23" t="n">
+        <v>1.393881118297584</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>-5.58917605876923</v>
+      </c>
+      <c r="B24" t="n">
+        <v>-7.849099040031435</v>
+      </c>
+      <c r="C24" t="n">
+        <v>6.400659620761871</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>2.166972637176496</v>
+      </c>
+      <c r="B25" t="n">
+        <v>-11.98566874265667</v>
+      </c>
+      <c r="C25" t="n">
+        <v>9.183138275146462</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>-0.1177038192748863</v>
+      </c>
+      <c r="B26" t="n">
+        <v>-2.770210593938835</v>
+      </c>
+      <c r="C26" t="n">
+        <v>3.860614097118379</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>3.127950906753536</v>
+      </c>
+      <c r="B27" t="n">
+        <v>-4.12096252441406</v>
+      </c>
+      <c r="C27" t="n">
+        <v>3.36216964721679</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>2.318384975194932</v>
+      </c>
+      <c r="B28" t="n">
+        <v>-3.449181020259855</v>
+      </c>
+      <c r="C28" t="n">
+        <v>1.645497059822083</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>3.076034724712372</v>
+      </c>
+      <c r="B29" t="n">
+        <v>-2.935223340988159</v>
+      </c>
+      <c r="C29" t="n">
+        <v>1.488467574119568</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>4.307219874858854</v>
+      </c>
+      <c r="B30" t="n">
+        <v>-2.422872281074523</v>
+      </c>
+      <c r="C30" t="n">
+        <v>1.113696080446245</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>3.889325714111331</v>
+      </c>
+      <c r="B31" t="n">
+        <v>-2.331348705291748</v>
+      </c>
+      <c r="C31" t="n">
+        <v>1.212168788909908</v>
       </c>
     </row>
   </sheetData>
